--- a/artfynd/A 63327-2025 artfynd.xlsx
+++ b/artfynd/A 63327-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130981927</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>130981931</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>130981916</v>
       </c>
       <c r="B4" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -979,10 +979,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130981911</v>
+        <v>130981914</v>
       </c>
       <c r="B5" t="n">
-        <v>91825</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,26 +990,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5442</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1017,10 +1022,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>437697</v>
+        <v>437688</v>
       </c>
       <c r="R5" t="n">
-        <v>6792416</v>
+        <v>6792409</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1061,7 +1066,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1073,17 +1077,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130981914</v>
+        <v>130981911</v>
       </c>
       <c r="B6" t="n">
-        <v>57877</v>
+        <v>91829</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1091,31 +1095,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1123,10 +1122,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>437688</v>
+        <v>437697</v>
       </c>
       <c r="R6" t="n">
-        <v>6792409</v>
+        <v>6792416</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1167,6 +1166,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
@@ -1188,7 +1188,7 @@
         <v>130981936</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>130981937</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>130981926</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>130981933</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>130981930</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>130981935</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>130981909</v>
       </c>
       <c r="B13" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>130981929</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>130981915</v>
       </c>
       <c r="B15" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>130981928</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>130981938</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/artfynd/A 63327-2025 artfynd.xlsx
+++ b/artfynd/A 63327-2025 artfynd.xlsx
@@ -1670,45 +1670,53 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130981935</v>
+        <v>130981909</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>437656</v>
+        <v>437657</v>
       </c>
       <c r="R12" t="n">
-        <v>6792404</v>
+        <v>6792398</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1760,60 +1768,52 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130981909</v>
+        <v>130981935</v>
       </c>
       <c r="B13" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>437657</v>
+        <v>437656</v>
       </c>
       <c r="R13" t="n">
-        <v>6792398</v>
+        <v>6792404</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>

--- a/artfynd/A 63327-2025 artfynd.xlsx
+++ b/artfynd/A 63327-2025 artfynd.xlsx
@@ -1670,53 +1670,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130981909</v>
+        <v>130981935</v>
       </c>
       <c r="B12" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>437657</v>
+        <v>437656</v>
       </c>
       <c r="R12" t="n">
-        <v>6792398</v>
+        <v>6792404</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1768,52 +1760,60 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130981935</v>
+        <v>130981909</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>437656</v>
+        <v>437657</v>
       </c>
       <c r="R13" t="n">
-        <v>6792404</v>
+        <v>6792398</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>

--- a/artfynd/A 63327-2025 artfynd.xlsx
+++ b/artfynd/A 63327-2025 artfynd.xlsx
@@ -979,10 +979,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130981914</v>
+        <v>130981911</v>
       </c>
       <c r="B5" t="n">
-        <v>57881</v>
+        <v>91829</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,31 +990,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>5442</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1022,10 +1017,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>437688</v>
+        <v>437697</v>
       </c>
       <c r="R5" t="n">
-        <v>6792409</v>
+        <v>6792416</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1066,6 +1061,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1077,17 +1073,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130981911</v>
+        <v>130981914</v>
       </c>
       <c r="B6" t="n">
-        <v>91829</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1095,26 +1091,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5442</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1122,10 +1123,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>437697</v>
+        <v>437688</v>
       </c>
       <c r="R6" t="n">
-        <v>6792416</v>
+        <v>6792409</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1166,7 +1167,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130981933</v>
+        <v>130981930</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>437877</v>
+        <v>437745</v>
       </c>
       <c r="R10" t="n">
-        <v>6792522</v>
+        <v>6792623</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130981930</v>
+        <v>130981933</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>437745</v>
+        <v>437877</v>
       </c>
       <c r="R11" t="n">
-        <v>6792623</v>
+        <v>6792522</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1670,45 +1670,53 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130981935</v>
+        <v>130981909</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>437656</v>
+        <v>437657</v>
       </c>
       <c r="R12" t="n">
-        <v>6792404</v>
+        <v>6792398</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1760,60 +1768,52 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130981909</v>
+        <v>130981935</v>
       </c>
       <c r="B13" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>437657</v>
+        <v>437656</v>
       </c>
       <c r="R13" t="n">
-        <v>6792398</v>
+        <v>6792404</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>

--- a/artfynd/A 63327-2025 artfynd.xlsx
+++ b/artfynd/A 63327-2025 artfynd.xlsx
@@ -1476,7 +1476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130981930</v>
+        <v>130981933</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>437745</v>
+        <v>437877</v>
       </c>
       <c r="R10" t="n">
-        <v>6792623</v>
+        <v>6792522</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130981933</v>
+        <v>130981930</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>437877</v>
+        <v>437745</v>
       </c>
       <c r="R11" t="n">
-        <v>6792522</v>
+        <v>6792623</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1670,53 +1670,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130981909</v>
+        <v>130981935</v>
       </c>
       <c r="B12" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>437657</v>
+        <v>437656</v>
       </c>
       <c r="R12" t="n">
-        <v>6792398</v>
+        <v>6792404</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1768,52 +1760,60 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130981935</v>
+        <v>130981909</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>437656</v>
+        <v>437657</v>
       </c>
       <c r="R13" t="n">
-        <v>6792404</v>
+        <v>6792398</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>

--- a/artfynd/A 63327-2025 artfynd.xlsx
+++ b/artfynd/A 63327-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130981927</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>130981931</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>130981911</v>
       </c>
       <c r="B5" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>130981936</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>130981937</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>130981926</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>130981933</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>130981930</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1670,53 +1670,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130981909</v>
+        <v>130981935</v>
       </c>
       <c r="B12" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>437657</v>
+        <v>437656</v>
       </c>
       <c r="R12" t="n">
-        <v>6792398</v>
+        <v>6792404</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1768,52 +1760,60 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130981935</v>
+        <v>130981909</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>437656</v>
+        <v>437657</v>
       </c>
       <c r="R13" t="n">
-        <v>6792404</v>
+        <v>6792398</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -1875,7 +1875,7 @@
         <v>130981929</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>130981928</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>130981938</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/artfynd/A 63327-2025 artfynd.xlsx
+++ b/artfynd/A 63327-2025 artfynd.xlsx
@@ -1476,7 +1476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130981933</v>
+        <v>130981930</v>
       </c>
       <c r="B10" t="n">
         <v>79244</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>437877</v>
+        <v>437745</v>
       </c>
       <c r="R10" t="n">
-        <v>6792522</v>
+        <v>6792623</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130981930</v>
+        <v>130981933</v>
       </c>
       <c r="B11" t="n">
         <v>79244</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>437745</v>
+        <v>437877</v>
       </c>
       <c r="R11" t="n">
-        <v>6792623</v>
+        <v>6792522</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1670,45 +1670,53 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130981935</v>
+        <v>130981909</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>437656</v>
+        <v>437657</v>
       </c>
       <c r="R12" t="n">
-        <v>6792404</v>
+        <v>6792398</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1760,60 +1768,52 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130981909</v>
+        <v>130981935</v>
       </c>
       <c r="B13" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>437657</v>
+        <v>437656</v>
       </c>
       <c r="R13" t="n">
-        <v>6792398</v>
+        <v>6792404</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>

--- a/artfynd/A 63327-2025 artfynd.xlsx
+++ b/artfynd/A 63327-2025 artfynd.xlsx
@@ -979,10 +979,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130981911</v>
+        <v>130981914</v>
       </c>
       <c r="B5" t="n">
-        <v>91830</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,26 +990,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5442</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1017,10 +1022,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>437697</v>
+        <v>437688</v>
       </c>
       <c r="R5" t="n">
-        <v>6792416</v>
+        <v>6792409</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1061,7 +1066,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1073,17 +1077,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130981914</v>
+        <v>130981911</v>
       </c>
       <c r="B6" t="n">
-        <v>57881</v>
+        <v>91830</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1091,31 +1095,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1123,10 +1122,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>437688</v>
+        <v>437697</v>
       </c>
       <c r="R6" t="n">
-        <v>6792409</v>
+        <v>6792416</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1167,6 +1166,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130981930</v>
+        <v>130981933</v>
       </c>
       <c r="B10" t="n">
         <v>79244</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>437745</v>
+        <v>437877</v>
       </c>
       <c r="R10" t="n">
-        <v>6792623</v>
+        <v>6792522</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130981933</v>
+        <v>130981930</v>
       </c>
       <c r="B11" t="n">
         <v>79244</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>437877</v>
+        <v>437745</v>
       </c>
       <c r="R11" t="n">
-        <v>6792522</v>
+        <v>6792623</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1670,53 +1670,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130981909</v>
+        <v>130981935</v>
       </c>
       <c r="B12" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>437657</v>
+        <v>437656</v>
       </c>
       <c r="R12" t="n">
-        <v>6792398</v>
+        <v>6792404</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1768,52 +1760,60 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130981935</v>
+        <v>130981909</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Brottvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>437656</v>
+        <v>437657</v>
       </c>
       <c r="R13" t="n">
-        <v>6792404</v>
+        <v>6792398</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
